--- a/wykresy/f(x)=5x^3-2x^2+3x-17.xlsx
+++ b/wykresy/f(x)=5x^3-2x^2+3x-17.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\Studia\5 sem\Programowanie genetyczne\tiny-gp\wykresy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97FB9E38-D537-468B-9D51-B6DED1671A2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5870D44-A264-4201-B255-6D6FD39CE43D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="(-10,10)" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="6">
   <si>
     <t>x1</t>
   </si>
@@ -37,6 +37,15 @@
   </si>
   <si>
     <t>program result</t>
+  </si>
+  <si>
+    <t>generation</t>
+  </si>
+  <si>
+    <t>bestFitness</t>
+  </si>
+  <si>
+    <t>averageFitness</t>
   </si>
 </sst>
 </file>
@@ -1162,304 +1171,304 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>-5252.2083241869996</c:v>
+                  <c:v>-5325.5815148236597</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-4949.2667607066796</c:v>
+                  <c:v>-5016.1091233071402</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-4658.2361156566503</c:v>
+                  <c:v>-4718.8392958466402</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-4378.8770593706504</c:v>
+                  <c:v>-4433.5269953240904</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-4110.9502621058</c:v>
+                  <c:v>-4159.9271846213996</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-3854.21639404295</c:v>
+                  <c:v>-3897.7948266204799</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-3608.4361252868998</c:v>
+                  <c:v>-3646.8848842032598</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-3373.3701258668202</c:v>
+                  <c:v>-3406.9523202516598</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-3148.7790657364599</c:v>
+                  <c:v>-3177.7520976475798</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-2934.42361477449</c:v>
+                  <c:v>-2959.0391792729401</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-2730.0644427848001</c:v>
+                  <c:v>-2750.56852800967</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-2535.4622194968001</c:v>
+                  <c:v>-2552.09510673967</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-2350.3776145657098</c:v>
+                  <c:v>-2363.3738783448698</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-2174.5712975728402</c:v>
+                  <c:v>-2184.1598057071801</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-2007.8039380258999</c:v>
+                  <c:v>-2014.2078517085199</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-1849.83620535931</c:v>
+                  <c:v>-1853.2729792308</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-1700.4287689344201</c:v>
+                  <c:v>-1701.11015115595</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-1559.34229803985</c:v>
+                  <c:v>-1557.4743303658699</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-1426.3374618917801</c:v>
+                  <c:v>-1422.12047974249</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-1301.17492963416</c:v>
+                  <c:v>-1294.80356216772</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-1183.6153703390601</c:v>
+                  <c:v>-1175.2785405234799</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-1073.4194530068901</c:v>
+                  <c:v>-1063.3003776916901</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-970.34784656667296</c:v>
+                  <c:v>-958.62403655425999</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-874.16121987631902</c:v>
+                  <c:v>-861.004479993107</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-784.62024172286397</c:v>
+                  <c:v>-770.19667089014899</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-701.48558082271302</c:v>
+                  <c:v>-685.95557212730296</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-624.517905821873</c:v>
+                  <c:v>-608.03614658648598</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-553.47788529617299</c:v>
+                  <c:v>-536.19335714961403</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-488.12618775146899</c:v>
+                  <c:v>-470.18216669860499</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-428.22348162382298</c:v>
+                  <c:v>-409.75753811537498</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-373.53043527966003</c:v>
+                  <c:v>-354.674434281841</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-323.80771701589202</c:v>
+                  <c:v>-304.68781807992002</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-278.81599505998997</c:v>
+                  <c:v>-259.552652391528</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-238.31593756999399</c:v>
+                  <c:v>-219.02390009858101</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-202.06821263444101</c:v>
+                  <c:v>-182.85652408299799</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>-169.83348827217</c:v>
+                  <c:v>-150.805487226694</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>-141.37243243194899</c:v>
+                  <c:v>-122.625752411585</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>-116.445712991861</c:v>
+                  <c:v>-98.072282519590502</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>-94.813997758310705</c:v>
+                  <c:v>-76.900040432624706</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>-76.237954464464593</c:v>
+                  <c:v>-58.863989032605097</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>-60.478250767803097</c:v>
+                  <c:v>-43.719091201448499</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>-47.295554246228299</c:v>
+                  <c:v>-31.220309821071599</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>-36.450532391753796</c:v>
+                  <c:v>-21.122607773391</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>-27.703852599954999</c:v>
+                  <c:v>-13.1809479403236</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>-20.8161821516061</c:v>
+                  <c:v>-7.1502932037859797</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>-15.548188179016</c:v>
+                  <c:v>-2.7856064456948602</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>-11.660537600066601</c:v>
+                  <c:v>0.158149452033017</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>-8.9138969773157495</c:v>
+                  <c:v>1.9260116074809399</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>-7.0689321802306697</c:v>
+                  <c:v>2.7630171387322</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>-5.8863074332003098</c:v>
+                  <c:v>2.9142031638700701</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>-5.1266818815212796</c:v>
+                  <c:v>2.62460680097784</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>-4.5506903303937296</c:v>
+                  <c:v>2.1392651681388002</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>-3.9185412175477201</c:v>
+                  <c:v>1.70321538343623</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>-2.9930700495615201</c:v>
+                  <c:v>1.56149456495341</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>-1.53200377494184</c:v>
+                  <c:v>1.9591398307736401</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.70257228235116398</c:v>
+                  <c:v>3.14118829898019</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>3.9501072728307398</c:v>
+                  <c:v>5.3526770876563496</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>8.4499517982703907</c:v>
+                  <c:v>8.8386433148854007</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>14.441444441385</c:v>
+                  <c:v>13.8441240987506</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>22.163920783736401</c:v>
+                  <c:v>20.614156557335299</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>31.856715394754701</c:v>
+                  <c:v>29.3937778087227</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>43.759162448552701</c:v>
+                  <c:v>40.428024970996198</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>58.110595958984099</c:v>
+                  <c:v>53.961935162239101</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>75.150349882737899</c:v>
+                  <c:v>70.240545500534495</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>95.117758169434893</c:v>
+                  <c:v>89.508893103965804</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>118.25215478794399</c:v>
+                  <c:v>112.012015090616</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>144.79287374107</c:v>
+                  <c:v>137.99494857856899</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>174.979249074151</c:v>
+                  <c:v>167.70273068590799</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>209.050614880285</c:v>
+                  <c:v>201.38039853071501</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>247.24630530359201</c:v>
+                  <c:v>239.272989231075</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>289.805654541298</c:v>
+                  <c:v>281.62553990507098</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>336.96799684507801</c:v>
+                  <c:v>328.68308767078599</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>388.972666521919</c:v>
+                  <c:v>380.69066964630201</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>446.05899793466699</c:v>
+                  <c:v>437.89332294970501</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>508.46632550237098</c:v>
+                  <c:v>500.53608469907601</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>576.43398370046498</c:v>
+                  <c:v>568.86399201249901</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>650.20130706085695</c:v>
+                  <c:v>643.12208200805696</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>730.00763017194197</c:v>
+                  <c:v>723.55539180383403</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>816.09228767855905</c:v>
+                  <c:v>810.40895851791299</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>908.694614281913</c:v>
+                  <c:v>903.92781926837699</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>1008.05394473946</c:v>
+                  <c:v>1004.35701117331</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>1114.4096138647899</c:v>
+                  <c:v>1111.9415713507899</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>1228.0009565274599</c:v>
+                  <c:v>1226.92653691891</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>1349.0673076528501</c:v>
+                  <c:v>1349.55694499575</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>1477.8480022219801</c:v>
+                  <c:v>1480.07783269939</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>1614.58237527136</c:v>
+                  <c:v>1618.7342371479101</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>1759.50976189276</c:v>
+                  <c:v>1765.7711954593999</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>1912.86949723308</c:v>
+                  <c:v>1921.4337447519499</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>2074.9009164941299</c:v>
+                  <c:v>2085.9669221436202</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>2245.84335493242</c:v>
+                  <c:v>2259.6157647525201</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>2425.9361478590299</c:v>
+                  <c:v>2442.6253096967198</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>2615.4186306393199</c:v>
+                  <c:v>2635.2405940942999</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>2814.53013869284</c:v>
+                  <c:v>2837.7066550633499</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>3023.5100074930501</c:v>
+                  <c:v>3050.26852972195</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>3242.5975725671701</c:v>
+                  <c:v>3273.1712551881801</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>3472.0321694959498</c:v>
+                  <c:v>3506.65986858014</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>3712.05313391351</c:v>
+                  <c:v>3750.97940701589</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>3962.8998015071202</c:v>
+                  <c:v>4006.37490761353</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>4224.8115080170101</c:v>
+                  <c:v>4273.0914074911298</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>4498.0275892361597</c:v>
+                  <c:v>4551.37394376679</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4356,304 +4365,304 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>-25.616025976969201</c:v>
+                  <c:v>-27.299182236313399</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-25.203496960075299</c:v>
+                  <c:v>-26.635334538524098</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-24.813340068892099</c:v>
+                  <c:v>-26.059486607545399</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-24.443775450319599</c:v>
+                  <c:v>-25.552905115887601</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-24.0932072168875</c:v>
+                  <c:v>-25.101821675005699</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-23.760200272901301</c:v>
+                  <c:v>-24.695890209580998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-23.443460557427599</c:v>
+                  <c:v>-24.327185841687001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-23.1418181304469</c:v>
+                  <c:v>-23.9895357742413</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-22.854212636005698</c:v>
+                  <c:v>-23.678060450775</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-22.579680761545902</c:v>
+                  <c:v>-23.388851733605499</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-22.3173453807619</c:v>
+                  <c:v>-23.118742627890601</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-22.066406122071299</c:v>
+                  <c:v>-22.8651395452816</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-21.8261311489746</c:v>
+                  <c:v>-22.625898149620301</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-21.595849974430301</c:v>
+                  <c:v>-22.399230122051002</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-21.3749471605942</c:v>
+                  <c:v>-22.1836322200236</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-21.1628567792018</c:v>
+                  <c:v>-21.977831649264498</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-20.959057527557299</c:v>
+                  <c:v>-21.7807435338636</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-20.7630684113449</c:v>
+                  <c:v>-21.5914374699089</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-20.574444918961099</c:v>
+                  <c:v>-21.409110977057999</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-20.392775623280201</c:v>
+                  <c:v>-21.233068243475401</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-20.217679156145799</c:v>
+                  <c:v>-21.062702972414101</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-20.048801508733401</c:v>
+                  <c:v>-20.897484435795</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-19.885813617543199</c:v>
+                  <c:v>-20.7369460564104</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-19.728409201362101</c:v>
+                  <c:v>-20.5806759995668</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-19.576302819255702</c:v>
+                  <c:v>-19.709919447787598</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-19.4292281236641</c:v>
+                  <c:v>-19.593083362338302</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-19.286936286094001</c:v>
+                  <c:v>-19.478354883711699</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-19.149194575812501</c:v>
+                  <c:v>-19.365563729239501</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-19.015785074453099</c:v>
+                  <c:v>-19.2545593838875</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-18.8865035115873</c:v>
+                  <c:v>-19.145208429397801</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-18.761158208162101</c:v>
+                  <c:v>-19.037392302932499</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-18.639569116299899</c:v>
+                  <c:v>-18.931005407395901</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-18.521566945334499</c:v>
+                  <c:v>-18.825953511385901</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-18.406992365153901</c:v>
+                  <c:v>-18.722152388990501</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-18.295695278957499</c:v>
+                  <c:v>-18.619526659263201</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>-18.187534158441299</c:v>
+                  <c:v>-18.5180087927898</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>-18.082375435213699</c:v>
+                  <c:v>-18.417538258777501</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>-17.980092942932401</c:v>
+                  <c:v>-18.3180607909012</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>-17.880567405260901</c:v>
+                  <c:v>-18.2195277539996</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>-17.7836859652691</c:v>
+                  <c:v>-18.121895596826899</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>-17.689341752372499</c:v>
+                  <c:v>-18.025125378598101</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>-17.597433483310599</c:v>
+                  <c:v>-17.929182359123399</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>-17.5078650940325</c:v>
+                  <c:v>-17.834035644022801</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>-17.420545399671401</c:v>
+                  <c:v>-17.739657877895301</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>-17.3353877800768</c:v>
+                  <c:v>-17.6460249794651</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>-17.2523098886209</c:v>
+                  <c:v>-17.5531159136548</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>-17.171233382219199</c:v>
+                  <c:v>-17.460912496281399</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>-17.092083670700202</c:v>
+                  <c:v>-17.3693992276053</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>-17.014789683835598</c:v>
+                  <c:v>-17.278563151218101</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>-16.939283654495</c:v>
+                  <c:v>-17.188393734477899</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>-16.865500916531001</c:v>
+                  <c:v>-17.098882765118599</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>-16.793379716116199</c:v>
+                  <c:v>-17.010024253188899</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>-16.722861035369402</c:v>
+                  <c:v>-16.921814307904</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>-16.653888427196801</c:v>
+                  <c:v>-16.834250874298998</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>-16.586407860363799</c:v>
+                  <c:v>-16.747332694158501</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>-16.520367573883899</c:v>
+                  <c:v>-16.661050137680899</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>-16.4557179398759</c:v>
+                  <c:v>-16.575601832825999</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>-16.3924113340986</c:v>
+                  <c:v>-16.4905664383115</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>-16.3304020134137</c:v>
+                  <c:v>-16.406289250332701</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>-16.269645999474101</c:v>
+                  <c:v>-16.3227041736716</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>-16.2101009679577</c:v>
+                  <c:v>-16.239821358558999</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>-16.151726142696699</c:v>
+                  <c:v>-16.1576570255692</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>-16.094482194062799</c:v>
+                  <c:v>-16.0762308760332</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>-16.038331140976101</c:v>
+                  <c:v>-15.995565804979099</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>-15.983236255906</c:v>
+                  <c:v>-15.915687989008999</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>-15.929161972214001</c:v>
+                  <c:v>-15.8366270932073</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>-15.8760737931698</c:v>
+                  <c:v>-15.7584165448477</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>-15.8239382019331</c:v>
+                  <c:v>-15.681093863073</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>-15.772722571742101</c:v>
+                  <c:v>-15.604701045551799</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>-15.722395075481099</c:v>
+                  <c:v>-15.529285017868</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>-15.6729245937105</c:v>
+                  <c:v>-15.4548981542652</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>-15.6242806201241</c:v>
+                  <c:v>-15.3815988808198</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>-15.576433163254199</c:v>
+                  <c:v>-15.3094523747215</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>-15.5293526430579</c:v>
+                  <c:v>-15.2385313763635</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>-15.4830097807813</c:v>
+                  <c:v>-15.168917134599599</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>-15.437375480204601</c:v>
+                  <c:v>-15.1007005100331</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>-15.3924206979944</c:v>
+                  <c:v>-15.033983266810999</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>-15.3481163004155</c:v>
+                  <c:v>-14.968879590445001</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>-15.3044329030495</c:v>
+                  <c:v>-14.905517878085799</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>-15.261340689398301</c:v>
+                  <c:v>-14.8440428590223</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>-15.2188092032547</c:v>
+                  <c:v>-14.7846181177178</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>-15.1768071084445</c:v>
+                  <c:v>-14.7274291104752</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>-15.1353019078697</c:v>
+                  <c:v>-14.6726867912652</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>-15.094259611599201</c:v>
+                  <c:v>-14.6206319943128</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>-15.053644340852101</c:v>
+                  <c:v>-14.5715407634573</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>-15.013417850863</c:v>
+                  <c:v>-14.5257308749456</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>-14.973538950418799</c:v>
+                  <c:v>-14.483569876673201</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>-14.933962788791099</c:v>
+                  <c:v>-14.4454850709106</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>-14.894639971071401</c:v>
+                  <c:v>-13.388276166400701</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>-14.855515449409101</c:v>
+                  <c:v>-13.292705962907601</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>-14.816527118617101</c:v>
+                  <c:v>-13.197289889628999</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>-14.7776040174471</c:v>
+                  <c:v>-13.1020234174304</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>-14.738663997456801</c:v>
+                  <c:v>-13.0069021929079</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>-14.699610663415401</c:v>
+                  <c:v>-12.911922029947901</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>-14.6603293022843</c:v>
+                  <c:v>-12.817078901767101</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>-14.6206813850103</c:v>
+                  <c:v>-12.722368933403899</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>-14.580497018067801</c:v>
+                  <c:v>-12.6277883946301</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>-14.539564390352799</c:v>
+                  <c:v>-12.533333693255599</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>-14.497614717354701</c:v>
+                  <c:v>-12.439001368802201</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>-14.454300265693799</c:v>
+                  <c:v>-12.344788086521699</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4884,6 +4893,1002 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'(-1,1)'!$Z$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>bestFitness</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'(-1,1)'!$Y$2:$Y$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'(-1,1)'!$Z$2:$Z$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>156.02178901189399</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>82.478384098413798</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>75.101662864940494</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>75.035061617370104</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>75.035061617370104</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60.341855499787499</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>54.169243779252199</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>54.169243779252199</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>46.397469687736802</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45.0294092844359</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>42.353151967045697</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>40.576886648658302</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>40.576886648658302</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>40.576886648658302</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>40.576886648658302</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>40.576886648658302</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>40.576886648658302</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>40.576886648658302</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>37.543547605745097</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>37.543534009938902</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>37.517766109370299</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>37.208318959848398</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>35.576585884113499</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>33.1140415808649</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>33.110850448866103</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>33.110850448866103</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>32.781480255405398</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>32.525126201474002</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>32.096279353129603</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>31.825906869857601</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>29.260110266497701</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>28.005673986049199</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>27.4543533045332</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>27.454353302228402</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>24.977742124120098</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8E17-4D6C-B9DD-E1C94488C32E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1946566463"/>
+        <c:axId val="1992936447"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1946566463"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1992936447"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1992936447"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1946566463"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'(-1,1)'!$AA$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>averageFitness</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'(-1,1)'!$Y$2:$Y$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'(-1,1)'!$AA$2:$AA$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>4519.6738543159099</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1880.8098298754401</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1419.6807589593</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1275.3272367725299</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1143.95781241396</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1047.2124135114</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>952.08478640906503</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>872.08968941965895</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>823.52349539142699</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1108.4875484526301</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1623.2321483728299</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>742.84584289804195</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>697.10214052535503</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>731.38508339907696</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1406.19218850927</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>10972.137628746101</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>844.17124057659703</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2273.0280061799099</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>358.25590650271198</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>297.34963337392998</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>303.59470346694502</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>306.98120430356198</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>360.03483417409302</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>232.427662172601</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>302.36559937577999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>245.20931004952701</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>207.02411765215501</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>742.80557522904598</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>511.00190439005502</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>401.092543209366</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>343.654372231558</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>236.07732459349199</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>4966.6102588569402</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1289.62648293034</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1121.6522055604601</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7A1E-49F9-BDA1-AE2BFF0A4AEC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2067626207"/>
+        <c:axId val="1992953807"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2067626207"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1992953807"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1992953807"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2067626207"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="pl-PL"/>
@@ -6640,6 +7645,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -8704,20 +9789,1052 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>523874</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>285749</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>247649</xdr:colOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>47624</xdr:rowOff>
+      <xdr:rowOff>104774</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8791,15 +10908,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>609599</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>9524</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>485776</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8819,6 +10936,78 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>209549</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>66674</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Wykres 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82209D9C-E8C0-4981-299D-AA4B6CF282CF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>142874</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>19049</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Wykres 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E617145-8280-CE1A-1FAD-A7650C5A5A6D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -9133,14 +11322,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Z7" sqref="Z7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="X23" sqref="X23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="14.28515625" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -9162,7 +11350,7 @@
         <v>-5247</v>
       </c>
       <c r="C2">
-        <v>-5252.2083241869996</v>
+        <v>-5325.5815148236597</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -9173,7 +11361,7 @@
         <v>-4944.4399999999996</v>
       </c>
       <c r="C3">
-        <v>-4949.2667607066796</v>
+        <v>-5016.1091233071402</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -9184,7 +11372,7 @@
         <v>-4653.8</v>
       </c>
       <c r="C4">
-        <v>-4658.2361156566503</v>
+        <v>-4718.8392958466402</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -9195,7 +11383,7 @@
         <v>-4374.84</v>
       </c>
       <c r="C5">
-        <v>-4378.8770593706504</v>
+        <v>-4433.5269953240904</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -9206,7 +11394,7 @@
         <v>-4107.32</v>
       </c>
       <c r="C6">
-        <v>-4110.9502621058</v>
+        <v>-4159.9271846213996</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -9217,7 +11405,7 @@
         <v>-3851</v>
       </c>
       <c r="C7">
-        <v>-3854.21639404295</v>
+        <v>-3897.7948266204799</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -9228,7 +11416,7 @@
         <v>-3605.64</v>
       </c>
       <c r="C8">
-        <v>-3608.4361252868998</v>
+        <v>-3646.8848842032598</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -9239,7 +11427,7 @@
         <v>-3371</v>
       </c>
       <c r="C9">
-        <v>-3373.3701258668202</v>
+        <v>-3406.9523202516598</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -9250,7 +11438,7 @@
         <v>-3146.84</v>
       </c>
       <c r="C10">
-        <v>-3148.7790657364599</v>
+        <v>-3177.7520976475798</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -9261,7 +11449,7 @@
         <v>-2932.92</v>
       </c>
       <c r="C11">
-        <v>-2934.42361477449</v>
+        <v>-2959.0391792729401</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -9272,7 +11460,7 @@
         <v>-2729</v>
       </c>
       <c r="C12">
-        <v>-2730.0644427848001</v>
+        <v>-2750.56852800967</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -9283,7 +11471,7 @@
         <v>-2534.84</v>
       </c>
       <c r="C13">
-        <v>-2535.4622194968001</v>
+        <v>-2552.09510673967</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -9294,7 +11482,7 @@
         <v>-2350.1999999999998</v>
       </c>
       <c r="C14">
-        <v>-2350.3776145657098</v>
+        <v>-2363.3738783448698</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -9305,7 +11493,7 @@
         <v>-2174.84</v>
       </c>
       <c r="C15">
-        <v>-2174.5712975728402</v>
+        <v>-2184.1598057071801</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -9316,7 +11504,7 @@
         <v>-2008.52</v>
       </c>
       <c r="C16">
-        <v>-2007.8039380258999</v>
+        <v>-2014.2078517085199</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -9327,7 +11515,7 @@
         <v>-1851</v>
       </c>
       <c r="C17">
-        <v>-1849.83620535931</v>
+        <v>-1853.2729792308</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -9338,7 +11526,7 @@
         <v>-1702.04</v>
       </c>
       <c r="C18">
-        <v>-1700.4287689344201</v>
+        <v>-1701.11015115595</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -9349,7 +11537,7 @@
         <v>-1561.4</v>
       </c>
       <c r="C19">
-        <v>-1559.34229803985</v>
+        <v>-1557.4743303658699</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -9360,7 +11548,7 @@
         <v>-1428.84</v>
       </c>
       <c r="C20">
-        <v>-1426.3374618917801</v>
+        <v>-1422.12047974249</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -9371,7 +11559,7 @@
         <v>-1304.1199999999999</v>
       </c>
       <c r="C21">
-        <v>-1301.17492963416</v>
+        <v>-1294.80356216772</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -9382,7 +11570,7 @@
         <v>-1187</v>
       </c>
       <c r="C22">
-        <v>-1183.6153703390601</v>
+        <v>-1175.2785405234799</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -9393,7 +11581,7 @@
         <v>-1077.24</v>
       </c>
       <c r="C23">
-        <v>-1073.4194530068901</v>
+        <v>-1063.3003776916901</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -9404,7 +11592,7 @@
         <v>-974.60000000000196</v>
       </c>
       <c r="C24">
-        <v>-970.34784656667296</v>
+        <v>-958.62403655425999</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -9415,7 +11603,7 @@
         <v>-878.84000000000196</v>
       </c>
       <c r="C25">
-        <v>-874.16121987631902</v>
+        <v>-861.004479993107</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -9426,7 +11614,7 @@
         <v>-789.72000000000196</v>
       </c>
       <c r="C26">
-        <v>-784.62024172286397</v>
+        <v>-770.19667089014899</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -9437,7 +11625,7 @@
         <v>-707.00000000000102</v>
       </c>
       <c r="C27">
-        <v>-701.48558082271302</v>
+        <v>-685.95557212730296</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -9448,7 +11636,7 @@
         <v>-630.44000000000096</v>
       </c>
       <c r="C28">
-        <v>-624.517905821873</v>
+        <v>-608.03614658648598</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -9459,7 +11647,7 @@
         <v>-559.80000000000098</v>
       </c>
       <c r="C29">
-        <v>-553.47788529617299</v>
+        <v>-536.19335714961403</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -9470,7 +11658,7 @@
         <v>-494.840000000001</v>
       </c>
       <c r="C30">
-        <v>-488.12618775146899</v>
+        <v>-470.18216669860499</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -9481,7 +11669,7 @@
         <v>-435.32000000000102</v>
       </c>
       <c r="C31">
-        <v>-428.22348162382298</v>
+        <v>-409.75753811537498</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -9492,7 +11680,7 @@
         <v>-381</v>
       </c>
       <c r="C32">
-        <v>-373.53043527966003</v>
+        <v>-354.674434281841</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -9503,7 +11691,7 @@
         <v>-331.64</v>
       </c>
       <c r="C33">
-        <v>-323.80771701589202</v>
+        <v>-304.68781807992002</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -9514,7 +11702,7 @@
         <v>-287</v>
       </c>
       <c r="C34">
-        <v>-278.81599505998997</v>
+        <v>-259.552652391528</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -9525,7 +11713,7 @@
         <v>-246.84</v>
       </c>
       <c r="C35">
-        <v>-238.31593756999399</v>
+        <v>-219.02390009858101</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -9536,7 +11724,7 @@
         <v>-210.92</v>
       </c>
       <c r="C36">
-        <v>-202.06821263444101</v>
+        <v>-182.85652408299799</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -9547,7 +11735,7 @@
         <v>-179</v>
       </c>
       <c r="C37">
-        <v>-169.83348827217</v>
+        <v>-150.805487226694</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -9558,7 +11746,7 @@
         <v>-150.84</v>
       </c>
       <c r="C38">
-        <v>-141.37243243194899</v>
+        <v>-122.625752411585</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -9569,7 +11757,7 @@
         <v>-126.2</v>
       </c>
       <c r="C39">
-        <v>-116.445712991861</v>
+        <v>-98.072282519590502</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -9580,7 +11768,7 @@
         <v>-104.84</v>
       </c>
       <c r="C40">
-        <v>-94.813997758310705</v>
+        <v>-76.900040432624706</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -9591,7 +11779,7 @@
         <v>-86.520000000000095</v>
       </c>
       <c r="C41">
-        <v>-76.237954464464593</v>
+        <v>-58.863989032605097</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -9602,7 +11790,7 @@
         <v>-71.000000000000099</v>
       </c>
       <c r="C42">
-        <v>-60.478250767803097</v>
+        <v>-43.719091201448499</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -9613,7 +11801,7 @@
         <v>-58.040000000000099</v>
       </c>
       <c r="C43">
-        <v>-47.295554246228299</v>
+        <v>-31.220309821071599</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -9624,7 +11812,7 @@
         <v>-47.4</v>
       </c>
       <c r="C44">
-        <v>-36.450532391753796</v>
+        <v>-21.122607773391</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -9635,7 +11823,7 @@
         <v>-38.840000000000003</v>
       </c>
       <c r="C45">
-        <v>-27.703852599954999</v>
+        <v>-13.1809479403236</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -9646,7 +11834,7 @@
         <v>-32.119999999999997</v>
       </c>
       <c r="C46">
-        <v>-20.8161821516061</v>
+        <v>-7.1502932037859797</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -9657,7 +11845,7 @@
         <v>-27</v>
       </c>
       <c r="C47">
-        <v>-15.548188179016</v>
+        <v>-2.7856064456948602</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -9668,7 +11856,7 @@
         <v>-23.24</v>
       </c>
       <c r="C48">
-        <v>-11.660537600066601</v>
+        <v>0.158149452033017</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -9679,7 +11867,7 @@
         <v>-20.6</v>
       </c>
       <c r="C49">
-        <v>-8.9138969773157495</v>
+        <v>1.9260116074809399</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -9690,7 +11878,7 @@
         <v>-18.84</v>
       </c>
       <c r="C50">
-        <v>-7.0689321802306697</v>
+        <v>2.7630171387322</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -9701,7 +11889,7 @@
         <v>-17.72</v>
       </c>
       <c r="C51">
-        <v>-5.8863074332003098</v>
+        <v>2.9142031638700701</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -9712,7 +11900,7 @@
         <v>-17</v>
       </c>
       <c r="C52">
-        <v>-5.1266818815212796</v>
+        <v>2.62460680097784</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -9723,7 +11911,7 @@
         <v>-16.440000000000001</v>
       </c>
       <c r="C53">
-        <v>-4.5506903303937296</v>
+        <v>2.1392651681388002</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -9734,7 +11922,7 @@
         <v>-15.8</v>
       </c>
       <c r="C54">
-        <v>-3.9185412175477201</v>
+        <v>1.70321538343623</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -9745,7 +11933,7 @@
         <v>-14.84</v>
       </c>
       <c r="C55">
-        <v>-2.9930700495615201</v>
+        <v>1.56149456495341</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -9756,7 +11944,7 @@
         <v>-13.32</v>
       </c>
       <c r="C56">
-        <v>-1.53200377494184</v>
+        <v>1.9591398307736401</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -9767,7 +11955,7 @@
         <v>-11</v>
       </c>
       <c r="C57">
-        <v>0.70257228235116398</v>
+        <v>3.14118829898019</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -9778,7 +11966,7 @@
         <v>-7.6400000000000396</v>
       </c>
       <c r="C58">
-        <v>3.9501072728307398</v>
+        <v>5.3526770876563496</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -9789,7 +11977,7 @@
         <v>-3.0000000000000502</v>
       </c>
       <c r="C59">
-        <v>8.4499517982703907</v>
+        <v>8.8386433148854007</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
@@ -9800,7 +11988,7 @@
         <v>3.1599999999999202</v>
       </c>
       <c r="C60">
-        <v>14.441444441385</v>
+        <v>13.8441240987506</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -9811,7 +11999,7 @@
         <v>11.079999999999799</v>
       </c>
       <c r="C61">
-        <v>22.163920783736401</v>
+        <v>20.614156557335299</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
@@ -9822,7 +12010,7 @@
         <v>20.999999999999801</v>
       </c>
       <c r="C62">
-        <v>31.856715394754701</v>
+        <v>29.3937778087227</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
@@ -9833,7 +12021,7 @@
         <v>33.159999999999798</v>
       </c>
       <c r="C63">
-        <v>43.759162448552701</v>
+        <v>40.428024970996198</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
@@ -9844,7 +12032,7 @@
         <v>47.799999999999798</v>
       </c>
       <c r="C64">
-        <v>58.110595958984099</v>
+        <v>53.961935162239101</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -9855,7 +12043,7 @@
         <v>65.159999999999798</v>
       </c>
       <c r="C65">
-        <v>75.150349882737899</v>
+        <v>70.240545500534495</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
@@ -9866,7 +12054,7 @@
         <v>85.479999999999805</v>
       </c>
       <c r="C66">
-        <v>95.117758169434893</v>
+        <v>89.508893103965804</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
@@ -9877,7 +12065,7 @@
         <v>108.99999999999901</v>
       </c>
       <c r="C67">
-        <v>118.25215478794399</v>
+        <v>112.012015090616</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
@@ -9888,7 +12076,7 @@
         <v>135.95999999999901</v>
       </c>
       <c r="C68">
-        <v>144.79287374107</v>
+        <v>137.99494857856899</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
@@ -9899,7 +12087,7 @@
         <v>166.599999999999</v>
       </c>
       <c r="C69">
-        <v>174.979249074151</v>
+        <v>167.70273068590799</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
@@ -9910,7 +12098,7 @@
         <v>201.159999999999</v>
       </c>
       <c r="C70">
-        <v>209.050614880285</v>
+        <v>201.38039853071501</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
@@ -9921,7 +12109,7 @@
         <v>239.879999999999</v>
       </c>
       <c r="C71">
-        <v>247.24630530359201</v>
+        <v>239.272989231075</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
@@ -9932,7 +12120,7 @@
         <v>282.99999999999898</v>
       </c>
       <c r="C72">
-        <v>289.805654541298</v>
+        <v>281.62553990507098</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
@@ -9943,7 +12131,7 @@
         <v>330.75999999999902</v>
       </c>
       <c r="C73">
-        <v>336.96799684507801</v>
+        <v>328.68308767078599</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
@@ -9954,7 +12142,7 @@
         <v>383.39999999999901</v>
       </c>
       <c r="C74">
-        <v>388.972666521919</v>
+        <v>380.69066964630201</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
@@ -9965,7 +12153,7 @@
         <v>441.159999999999</v>
       </c>
       <c r="C75">
-        <v>446.05899793466699</v>
+        <v>437.89332294970501</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
@@ -9976,7 +12164,7 @@
         <v>504.28</v>
       </c>
       <c r="C76">
-        <v>508.46632550237098</v>
+        <v>500.53608469907601</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
@@ -9987,7 +12175,7 @@
         <v>573</v>
       </c>
       <c r="C77">
-        <v>576.43398370046498</v>
+        <v>568.86399201249901</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
@@ -9998,7 +12186,7 @@
         <v>647.55999999999995</v>
       </c>
       <c r="C78">
-        <v>650.20130706085695</v>
+        <v>643.12208200805696</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
@@ -10009,7 +12197,7 @@
         <v>728.2</v>
       </c>
       <c r="C79">
-        <v>730.00763017194197</v>
+        <v>723.55539180383403</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
@@ -10020,7 +12208,7 @@
         <v>815.16</v>
       </c>
       <c r="C80">
-        <v>816.09228767855905</v>
+        <v>810.40895851791299</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
@@ -10031,7 +12219,7 @@
         <v>908.68</v>
       </c>
       <c r="C81">
-        <v>908.694614281913</v>
+        <v>903.92781926837699</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
@@ -10042,7 +12230,7 @@
         <v>1009</v>
       </c>
       <c r="C82">
-        <v>1008.05394473946</v>
+        <v>1004.35701117331</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
@@ -10053,7 +12241,7 @@
         <v>1116.3599999999999</v>
       </c>
       <c r="C83">
-        <v>1114.4096138647899</v>
+        <v>1111.9415713507899</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
@@ -10064,7 +12252,7 @@
         <v>1231</v>
       </c>
       <c r="C84">
-        <v>1228.0009565274599</v>
+        <v>1226.92653691891</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
@@ -10075,7 +12263,7 @@
         <v>1353.16</v>
       </c>
       <c r="C85">
-        <v>1349.0673076528501</v>
+        <v>1349.55694499575</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
@@ -10086,7 +12274,7 @@
         <v>1483.08</v>
       </c>
       <c r="C86">
-        <v>1477.8480022219801</v>
+        <v>1480.07783269939</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
@@ -10097,7 +12285,7 @@
         <v>1621</v>
       </c>
       <c r="C87">
-        <v>1614.58237527136</v>
+        <v>1618.7342371479101</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
@@ -10108,7 +12296,7 @@
         <v>1767.16</v>
       </c>
       <c r="C88">
-        <v>1759.50976189276</v>
+        <v>1765.7711954593999</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
@@ -10119,7 +12307,7 @@
         <v>1921.8</v>
       </c>
       <c r="C89">
-        <v>1912.86949723308</v>
+        <v>1921.4337447519499</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
@@ -10130,7 +12318,7 @@
         <v>2085.16</v>
       </c>
       <c r="C90">
-        <v>2074.9009164941299</v>
+        <v>2085.9669221436202</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
@@ -10141,7 +12329,7 @@
         <v>2257.48</v>
       </c>
       <c r="C91">
-        <v>2245.84335493242</v>
+        <v>2259.6157647525201</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
@@ -10152,7 +12340,7 @@
         <v>2439</v>
       </c>
       <c r="C92">
-        <v>2425.9361478590299</v>
+        <v>2442.6253096967198</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
@@ -10163,7 +12351,7 @@
         <v>2629.96</v>
       </c>
       <c r="C93">
-        <v>2615.4186306393199</v>
+        <v>2635.2405940942999</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
@@ -10174,7 +12362,7 @@
         <v>2830.6</v>
       </c>
       <c r="C94">
-        <v>2814.53013869284</v>
+        <v>2837.7066550633499</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
@@ -10185,7 +12373,7 @@
         <v>3041.16</v>
       </c>
       <c r="C95">
-        <v>3023.5100074930501</v>
+        <v>3050.26852972195</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
@@ -10196,7 +12384,7 @@
         <v>3261.8799999999901</v>
       </c>
       <c r="C96">
-        <v>3242.5975725671701</v>
+        <v>3273.1712551881801</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
@@ -10207,7 +12395,7 @@
         <v>3492.99999999999</v>
       </c>
       <c r="C97">
-        <v>3472.0321694959498</v>
+        <v>3506.65986858014</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
@@ -10218,7 +12406,7 @@
         <v>3734.7599999999902</v>
       </c>
       <c r="C98">
-        <v>3712.05313391351</v>
+        <v>3750.97940701589</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
@@ -10229,7 +12417,7 @@
         <v>3987.3999999999901</v>
       </c>
       <c r="C99">
-        <v>3962.8998015071202</v>
+        <v>4006.37490761353</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
@@ -10240,7 +12428,7 @@
         <v>4251.1599999999899</v>
       </c>
       <c r="C100">
-        <v>4224.8115080170101</v>
+        <v>4273.0914074911298</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
@@ -10251,7 +12439,7 @@
         <v>4526.2799999999897</v>
       </c>
       <c r="C101">
-        <v>4498.0275892361597</v>
+        <v>4551.37394376679</v>
       </c>
     </row>
   </sheetData>
@@ -11389,15 +13577,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54E3C468-A0C2-4010-8B20-062C60A2C687}">
-  <dimension ref="A1:C101"/>
+  <dimension ref="A1:AA101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" activeCellId="2" sqref="A1:A1048576 B1:B1048576 C1:C1048576"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="AD43" sqref="AD43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -11407,8 +13595,17 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="Y1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>-1</v>
       </c>
@@ -11416,10 +13613,19 @@
         <v>-27</v>
       </c>
       <c r="C2">
-        <v>-25.616025976969201</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-27.299182236313399</v>
+      </c>
+      <c r="Y2">
+        <v>1</v>
+      </c>
+      <c r="Z2">
+        <v>156.02178901189399</v>
+      </c>
+      <c r="AA2">
+        <v>4519.6738543159099</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>-0.98</v>
       </c>
@@ -11427,10 +13633,19 @@
         <v>-26.566759999999999</v>
       </c>
       <c r="C3">
-        <v>-25.203496960075299</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-26.635334538524098</v>
+      </c>
+      <c r="Y3">
+        <v>2</v>
+      </c>
+      <c r="Z3">
+        <v>82.478384098413798</v>
+      </c>
+      <c r="AA3">
+        <v>1880.8098298754401</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>-0.96</v>
       </c>
@@ -11438,10 +13653,19 @@
         <v>-26.146879999999999</v>
       </c>
       <c r="C4">
-        <v>-24.813340068892099</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-26.059486607545399</v>
+      </c>
+      <c r="Y4">
+        <v>3</v>
+      </c>
+      <c r="Z4">
+        <v>75.101662864940494</v>
+      </c>
+      <c r="AA4">
+        <v>1419.6807589593</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>-0.94</v>
       </c>
@@ -11449,10 +13673,19 @@
         <v>-25.740119999999902</v>
       </c>
       <c r="C5">
-        <v>-24.443775450319599</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-25.552905115887601</v>
+      </c>
+      <c r="Y5">
+        <v>4</v>
+      </c>
+      <c r="Z5">
+        <v>75.035061617370104</v>
+      </c>
+      <c r="AA5">
+        <v>1275.3272367725299</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>-0.91999999999999904</v>
       </c>
@@ -11460,10 +13693,19 @@
         <v>-25.346239999999899</v>
       </c>
       <c r="C6">
-        <v>-24.0932072168875</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-25.101821675005699</v>
+      </c>
+      <c r="Y6">
+        <v>5</v>
+      </c>
+      <c r="Z6">
+        <v>75.035061617370104</v>
+      </c>
+      <c r="AA6">
+        <v>1143.95781241396</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>-0.89999999999999902</v>
       </c>
@@ -11471,10 +13713,19 @@
         <v>-24.9649999999999</v>
       </c>
       <c r="C7">
-        <v>-23.760200272901301</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-24.695890209580998</v>
+      </c>
+      <c r="Y7">
+        <v>6</v>
+      </c>
+      <c r="Z7">
+        <v>60.341855499787499</v>
+      </c>
+      <c r="AA7">
+        <v>1047.2124135114</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>-0.87999999999999901</v>
       </c>
@@ -11482,10 +13733,19 @@
         <v>-24.596159999999902</v>
       </c>
       <c r="C8">
-        <v>-23.443460557427599</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-24.327185841687001</v>
+      </c>
+      <c r="Y8">
+        <v>7</v>
+      </c>
+      <c r="Z8">
+        <v>54.169243779252199</v>
+      </c>
+      <c r="AA8">
+        <v>952.08478640906503</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>-0.85999999999999899</v>
       </c>
@@ -11493,10 +13753,19 @@
         <v>-24.23948</v>
       </c>
       <c r="C9">
-        <v>-23.1418181304469</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-23.9895357742413</v>
+      </c>
+      <c r="Y9">
+        <v>8</v>
+      </c>
+      <c r="Z9">
+        <v>54.169243779252199</v>
+      </c>
+      <c r="AA9">
+        <v>872.08968941965895</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>-0.83999999999999897</v>
       </c>
@@ -11504,10 +13773,19 @@
         <v>-23.89472</v>
       </c>
       <c r="C10">
-        <v>-22.854212636005698</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-23.678060450775</v>
+      </c>
+      <c r="Y10">
+        <v>9</v>
+      </c>
+      <c r="Z10">
+        <v>46.397469687736802</v>
+      </c>
+      <c r="AA10">
+        <v>823.52349539142699</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>-0.81999999999999895</v>
       </c>
@@ -11515,10 +13793,19 @@
         <v>-23.561639999999901</v>
       </c>
       <c r="C11">
-        <v>-22.579680761545902</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-23.388851733605499</v>
+      </c>
+      <c r="Y11">
+        <v>10</v>
+      </c>
+      <c r="Z11">
+        <v>45.0294092844359</v>
+      </c>
+      <c r="AA11">
+        <v>1108.4875484526301</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>-0.79999999999999905</v>
       </c>
@@ -11526,10 +13813,19 @@
         <v>-23.239999999999899</v>
       </c>
       <c r="C12">
-        <v>-22.3173453807619</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-23.118742627890601</v>
+      </c>
+      <c r="Y12">
+        <v>11</v>
+      </c>
+      <c r="Z12">
+        <v>42.353151967045697</v>
+      </c>
+      <c r="AA12">
+        <v>1623.2321483728299</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>-0.77999999999999903</v>
       </c>
@@ -11537,10 +13833,19 @@
         <v>-22.929559999999899</v>
       </c>
       <c r="C13">
-        <v>-22.066406122071299</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-22.8651395452816</v>
+      </c>
+      <c r="Y13">
+        <v>12</v>
+      </c>
+      <c r="Z13">
+        <v>40.576886648658302</v>
+      </c>
+      <c r="AA13">
+        <v>742.84584289804195</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>-0.75999999999999901</v>
       </c>
@@ -11548,10 +13853,19 @@
         <v>-22.6300799999999</v>
       </c>
       <c r="C14">
-        <v>-21.8261311489746</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-22.625898149620301</v>
+      </c>
+      <c r="Y14">
+        <v>13</v>
+      </c>
+      <c r="Z14">
+        <v>40.576886648658302</v>
+      </c>
+      <c r="AA14">
+        <v>697.10214052535503</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>-0.73999999999999899</v>
       </c>
@@ -11559,10 +13873,19 @@
         <v>-22.3413199999999</v>
       </c>
       <c r="C15">
-        <v>-21.595849974430301</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-22.399230122051002</v>
+      </c>
+      <c r="Y15">
+        <v>14</v>
+      </c>
+      <c r="Z15">
+        <v>40.576886648658302</v>
+      </c>
+      <c r="AA15">
+        <v>731.38508339907696</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>-0.71999999999999897</v>
       </c>
@@ -11570,10 +13893,19 @@
         <v>-22.063039999999901</v>
       </c>
       <c r="C16">
-        <v>-21.3749471605942</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-22.1836322200236</v>
+      </c>
+      <c r="Y16">
+        <v>15</v>
+      </c>
+      <c r="Z16">
+        <v>40.576886648658302</v>
+      </c>
+      <c r="AA16">
+        <v>1406.19218850927</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>-0.69999999999999896</v>
       </c>
@@ -11581,10 +13913,19 @@
         <v>-21.794999999999899</v>
       </c>
       <c r="C17">
-        <v>-21.1628567792018</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-21.977831649264498</v>
+      </c>
+      <c r="Y17">
+        <v>16</v>
+      </c>
+      <c r="Z17">
+        <v>40.576886648658302</v>
+      </c>
+      <c r="AA17">
+        <v>10972.137628746101</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>-0.67999999999999905</v>
       </c>
@@ -11592,10 +13933,19 @@
         <v>-21.536959999999901</v>
       </c>
       <c r="C18">
-        <v>-20.959057527557299</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-21.7807435338636</v>
+      </c>
+      <c r="Y18">
+        <v>17</v>
+      </c>
+      <c r="Z18">
+        <v>40.576886648658302</v>
+      </c>
+      <c r="AA18">
+        <v>844.17124057659703</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>-0.65999999999999903</v>
       </c>
@@ -11603,10 +13953,19 @@
         <v>-21.2886799999999</v>
       </c>
       <c r="C19">
-        <v>-20.7630684113449</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-21.5914374699089</v>
+      </c>
+      <c r="Y19">
+        <v>18</v>
+      </c>
+      <c r="Z19">
+        <v>40.576886648658302</v>
+      </c>
+      <c r="AA19">
+        <v>2273.0280061799099</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>-0.63999999999999901</v>
       </c>
@@ -11614,10 +13973,19 @@
         <v>-21.049919999999901</v>
       </c>
       <c r="C20">
-        <v>-20.574444918961099</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-21.409110977057999</v>
+      </c>
+      <c r="Y20">
+        <v>19</v>
+      </c>
+      <c r="Z20">
+        <v>37.543547605745097</v>
+      </c>
+      <c r="AA20">
+        <v>358.25590650271198</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>-0.619999999999999</v>
       </c>
@@ -11625,10 +13993,19 @@
         <v>-20.820439999999898</v>
       </c>
       <c r="C21">
-        <v>-20.392775623280201</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-21.233068243475401</v>
+      </c>
+      <c r="Y21">
+        <v>20</v>
+      </c>
+      <c r="Z21">
+        <v>37.543534009938902</v>
+      </c>
+      <c r="AA21">
+        <v>297.34963337392998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>-0.59999999999999898</v>
       </c>
@@ -11636,10 +14013,19 @@
         <v>-20.599999999999898</v>
       </c>
       <c r="C22">
-        <v>-20.217679156145799</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-21.062702972414101</v>
+      </c>
+      <c r="Y22">
+        <v>21</v>
+      </c>
+      <c r="Z22">
+        <v>37.517766109370299</v>
+      </c>
+      <c r="AA22">
+        <v>303.59470346694502</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>-0.57999999999999896</v>
       </c>
@@ -11647,10 +14033,19 @@
         <v>-20.388359999999899</v>
       </c>
       <c r="C23">
-        <v>-20.048801508733401</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-20.897484435795</v>
+      </c>
+      <c r="Y23">
+        <v>22</v>
+      </c>
+      <c r="Z23">
+        <v>37.208318959848398</v>
+      </c>
+      <c r="AA23">
+        <v>306.98120430356198</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>-0.55999999999999905</v>
       </c>
@@ -11658,10 +14053,19 @@
         <v>-20.185279999999899</v>
       </c>
       <c r="C24">
-        <v>-19.885813617543199</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-20.7369460564104</v>
+      </c>
+      <c r="Y24">
+        <v>23</v>
+      </c>
+      <c r="Z24">
+        <v>35.576585884113499</v>
+      </c>
+      <c r="AA24">
+        <v>360.03483417409302</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>-0.53999999999999904</v>
       </c>
@@ -11669,10 +14073,19 @@
         <v>-19.990519999999901</v>
       </c>
       <c r="C25">
-        <v>-19.728409201362101</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-20.5806759995668</v>
+      </c>
+      <c r="Y25">
+        <v>24</v>
+      </c>
+      <c r="Z25">
+        <v>33.1140415808649</v>
+      </c>
+      <c r="AA25">
+        <v>232.427662172601</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>-0.51999999999999902</v>
       </c>
@@ -11680,10 +14093,19 @@
         <v>-19.803839999999902</v>
       </c>
       <c r="C26">
-        <v>-19.576302819255702</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-19.709919447787598</v>
+      </c>
+      <c r="Y26">
+        <v>25</v>
+      </c>
+      <c r="Z26">
+        <v>33.110850448866103</v>
+      </c>
+      <c r="AA26">
+        <v>302.36559937577999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>-0.499999999999999</v>
       </c>
@@ -11691,10 +14113,19 @@
         <v>-19.624999999999901</v>
       </c>
       <c r="C27">
-        <v>-19.4292281236641</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-19.593083362338302</v>
+      </c>
+      <c r="Y27">
+        <v>26</v>
+      </c>
+      <c r="Z27">
+        <v>33.110850448866103</v>
+      </c>
+      <c r="AA27">
+        <v>245.20931004952701</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>-0.47999999999999898</v>
       </c>
@@ -11702,10 +14133,19 @@
         <v>-19.4537599999999</v>
       </c>
       <c r="C28">
-        <v>-19.286936286094001</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-19.478354883711699</v>
+      </c>
+      <c r="Y28">
+        <v>27</v>
+      </c>
+      <c r="Z28">
+        <v>32.781480255405398</v>
+      </c>
+      <c r="AA28">
+        <v>207.02411765215501</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>-0.45999999999999902</v>
       </c>
@@ -11713,10 +14153,19 @@
         <v>-19.289879999999901</v>
       </c>
       <c r="C29">
-        <v>-19.149194575812501</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-19.365563729239501</v>
+      </c>
+      <c r="Y29">
+        <v>28</v>
+      </c>
+      <c r="Z29">
+        <v>32.525126201474002</v>
+      </c>
+      <c r="AA29">
+        <v>742.80557522904598</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>-0.439999999999999</v>
       </c>
@@ -11724,10 +14173,19 @@
         <v>-19.133119999999899</v>
       </c>
       <c r="C30">
-        <v>-19.015785074453099</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-19.2545593838875</v>
+      </c>
+      <c r="Y30">
+        <v>29</v>
+      </c>
+      <c r="Z30">
+        <v>32.096279353129603</v>
+      </c>
+      <c r="AA30">
+        <v>511.00190439005502</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>-0.41999999999999899</v>
       </c>
@@ -11735,10 +14193,19 @@
         <v>-18.983239999999899</v>
       </c>
       <c r="C31">
-        <v>-18.8865035115873</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-19.145208429397801</v>
+      </c>
+      <c r="Y31">
+        <v>30</v>
+      </c>
+      <c r="Z31">
+        <v>31.825906869857601</v>
+      </c>
+      <c r="AA31">
+        <v>401.092543209366</v>
+      </c>
+    </row>
+    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>-0.39999999999999902</v>
       </c>
@@ -11746,10 +14213,19 @@
         <v>-18.8399999999999</v>
       </c>
       <c r="C32">
-        <v>-18.761158208162101</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-19.037392302932499</v>
+      </c>
+      <c r="Y32">
+        <v>31</v>
+      </c>
+      <c r="Z32">
+        <v>29.260110266497701</v>
+      </c>
+      <c r="AA32">
+        <v>343.654372231558</v>
+      </c>
+    </row>
+    <row r="33" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>-0.37999999999999901</v>
       </c>
@@ -11757,10 +14233,19 @@
         <v>-18.703159999999901</v>
       </c>
       <c r="C33">
-        <v>-18.639569116299899</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-18.931005407395901</v>
+      </c>
+      <c r="Y33">
+        <v>32</v>
+      </c>
+      <c r="Z33">
+        <v>28.005673986049199</v>
+      </c>
+      <c r="AA33">
+        <v>236.07732459349199</v>
+      </c>
+    </row>
+    <row r="34" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>-0.35999999999999899</v>
       </c>
@@ -11768,10 +14253,19 @@
         <v>-18.572479999999899</v>
       </c>
       <c r="C34">
-        <v>-18.521566945334499</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-18.825953511385901</v>
+      </c>
+      <c r="Y34">
+        <v>33</v>
+      </c>
+      <c r="Z34">
+        <v>27.4543533045332</v>
+      </c>
+      <c r="AA34">
+        <v>4966.6102588569402</v>
+      </c>
+    </row>
+    <row r="35" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>-0.33999999999999903</v>
       </c>
@@ -11779,10 +14273,19 @@
         <v>-18.447719999999901</v>
       </c>
       <c r="C35">
-        <v>-18.406992365153901</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-18.722152388990501</v>
+      </c>
+      <c r="Y35">
+        <v>34</v>
+      </c>
+      <c r="Z35">
+        <v>27.454353302228402</v>
+      </c>
+      <c r="AA35">
+        <v>1289.62648293034</v>
+      </c>
+    </row>
+    <row r="36" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>-0.31999999999999901</v>
       </c>
@@ -11790,10 +14293,19 @@
         <v>-18.328639999999901</v>
       </c>
       <c r="C36">
-        <v>-18.295695278957499</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-18.619526659263201</v>
+      </c>
+      <c r="Y36">
+        <v>35</v>
+      </c>
+      <c r="Z36">
+        <v>24.977742124120098</v>
+      </c>
+      <c r="AA36">
+        <v>1121.6522055604601</v>
+      </c>
+    </row>
+    <row r="37" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>-0.29999999999999899</v>
       </c>
@@ -11801,10 +14313,10 @@
         <v>-18.2149999999999</v>
       </c>
       <c r="C37">
-        <v>-18.187534158441299</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-18.5180087927898</v>
+      </c>
+    </row>
+    <row r="38" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>-0.27999999999999903</v>
       </c>
@@ -11812,10 +14324,10 @@
         <v>-18.106559999999899</v>
       </c>
       <c r="C38">
-        <v>-18.082375435213699</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-18.417538258777501</v>
+      </c>
+    </row>
+    <row r="39" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>-0.25999999999999901</v>
       </c>
@@ -11823,10 +14335,10 @@
         <v>-18.003079999999901</v>
       </c>
       <c r="C39">
-        <v>-17.980092942932401</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-18.3180607909012</v>
+      </c>
+    </row>
+    <row r="40" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>-0.23999999999999899</v>
       </c>
@@ -11834,10 +14346,10 @@
         <v>-17.904319999999998</v>
       </c>
       <c r="C40">
-        <v>-17.880567405260901</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-18.2195277539996</v>
+      </c>
+    </row>
+    <row r="41" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>-0.219999999999999</v>
       </c>
@@ -11845,10 +14357,10 @@
         <v>-17.810039999999901</v>
       </c>
       <c r="C41">
-        <v>-17.7836859652691</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-18.121895596826899</v>
+      </c>
+    </row>
+    <row r="42" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>-0.19999999999999901</v>
       </c>
@@ -11856,10 +14368,10 @@
         <v>-17.72</v>
       </c>
       <c r="C42">
-        <v>-17.689341752372499</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-18.025125378598101</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>-0.17999999999999899</v>
       </c>
@@ -11867,10 +14379,10 @@
         <v>-17.633959999999998</v>
       </c>
       <c r="C43">
-        <v>-17.597433483310599</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-17.929182359123399</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>-0.159999999999999</v>
       </c>
@@ -11878,10 +14390,10 @@
         <v>-17.551679999999902</v>
       </c>
       <c r="C44">
-        <v>-17.5078650940325</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-17.834035644022801</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>-0.13999999999999899</v>
       </c>
@@ -11889,10 +14401,10 @@
         <v>-17.472919999999998</v>
       </c>
       <c r="C45">
-        <v>-17.420545399671401</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-17.739657877895301</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>-0.119999999999999</v>
       </c>
@@ -11900,10 +14412,10 @@
         <v>-17.3974399999999</v>
       </c>
       <c r="C46">
-        <v>-17.3353877800768</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-17.6460249794651</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>-9.9999999999999395E-2</v>
       </c>
@@ -11911,10 +14423,10 @@
         <v>-17.324999999999999</v>
       </c>
       <c r="C47">
-        <v>-17.2523098886209</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-17.5531159136548</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>-7.9999999999999294E-2</v>
       </c>
@@ -11922,7 +14434,7 @@
         <v>-17.25536</v>
       </c>
       <c r="C48">
-        <v>-17.171233382219199</v>
+        <v>-17.460912496281399</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -11933,7 +14445,7 @@
         <v>-17.188279999999999</v>
       </c>
       <c r="C49">
-        <v>-17.092083670700202</v>
+        <v>-17.3693992276053</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -11944,7 +14456,7 @@
         <v>-17.123519999999999</v>
       </c>
       <c r="C50">
-        <v>-17.014789683835598</v>
+        <v>-17.278563151218101</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -11955,7 +14467,7 @@
         <v>-17.060839999999999</v>
       </c>
       <c r="C51">
-        <v>-16.939283654495</v>
+        <v>-17.188393734477899</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -11966,7 +14478,7 @@
         <v>-16.999999999999901</v>
       </c>
       <c r="C52">
-        <v>-16.865500916531001</v>
+        <v>-17.098882765118599</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -11977,7 +14489,7 @@
         <v>-16.940759999999901</v>
       </c>
       <c r="C53">
-        <v>-16.793379716116199</v>
+        <v>-17.010024253188899</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -11988,7 +14500,7 @@
         <v>-16.882879999999901</v>
       </c>
       <c r="C54">
-        <v>-16.722861035369402</v>
+        <v>-16.921814307904</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -11999,7 +14511,7 @@
         <v>-16.82612</v>
       </c>
       <c r="C55">
-        <v>-16.653888427196801</v>
+        <v>-16.834250874298998</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -12010,7 +14522,7 @@
         <v>-16.770239999999902</v>
       </c>
       <c r="C56">
-        <v>-16.586407860363799</v>
+        <v>-16.747332694158501</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -12021,7 +14533,7 @@
         <v>-16.715</v>
       </c>
       <c r="C57">
-        <v>-16.520367573883899</v>
+        <v>-16.661050137680899</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -12032,7 +14544,7 @@
         <v>-16.660159999999902</v>
       </c>
       <c r="C58">
-        <v>-16.4557179398759</v>
+        <v>-16.575601832825999</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -12043,7 +14555,7 @@
         <v>-16.60548</v>
       </c>
       <c r="C59">
-        <v>-16.3924113340986</v>
+        <v>-16.4905664383115</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
@@ -12054,7 +14566,7 @@
         <v>-16.550719999999998</v>
       </c>
       <c r="C60">
-        <v>-16.3304020134137</v>
+        <v>-16.406289250332701</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -12065,7 +14577,7 @@
         <v>-16.495639999999899</v>
       </c>
       <c r="C61">
-        <v>-16.269645999474101</v>
+        <v>-16.3227041736716</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
@@ -12076,7 +14588,7 @@
         <v>-16.439999999999898</v>
       </c>
       <c r="C62">
-        <v>-16.2101009679577</v>
+        <v>-16.239821358558999</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
@@ -12087,7 +14599,7 @@
         <v>-16.383559999999999</v>
       </c>
       <c r="C63">
-        <v>-16.151726142696699</v>
+        <v>-16.1576570255692</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
@@ -12098,7 +14610,7 @@
         <v>-16.326079999999902</v>
       </c>
       <c r="C64">
-        <v>-16.094482194062799</v>
+        <v>-16.0762308760332</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -12109,7 +14621,7 @@
         <v>-16.267319999999899</v>
       </c>
       <c r="C65">
-        <v>-16.038331140976101</v>
+        <v>-15.995565804979099</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
@@ -12120,7 +14632,7 @@
         <v>-16.207039999999999</v>
       </c>
       <c r="C66">
-        <v>-15.983236255906</v>
+        <v>-15.915687989008999</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
@@ -12131,7 +14643,7 @@
         <v>-16.145</v>
       </c>
       <c r="C67">
-        <v>-15.929161972214001</v>
+        <v>-15.8366270932073</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
@@ -12142,7 +14654,7 @@
         <v>-16.080959999999902</v>
       </c>
       <c r="C68">
-        <v>-15.8760737931698</v>
+        <v>-15.7584165448477</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
@@ -12153,7 +14665,7 @@
         <v>-16.014679999999998</v>
       </c>
       <c r="C69">
-        <v>-15.8239382019331</v>
+        <v>-15.681093863073</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
@@ -12164,7 +14676,7 @@
         <v>-15.9459199999999</v>
       </c>
       <c r="C70">
-        <v>-15.772722571742101</v>
+        <v>-15.604701045551799</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
@@ -12175,7 +14687,7 @@
         <v>-15.8744399999999</v>
       </c>
       <c r="C71">
-        <v>-15.722395075481099</v>
+        <v>-15.529285017868</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
@@ -12186,7 +14698,7 @@
         <v>-15.799999999999899</v>
       </c>
       <c r="C72">
-        <v>-15.6729245937105</v>
+        <v>-15.4548981542652</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
@@ -12197,7 +14709,7 @@
         <v>-15.722359999999901</v>
       </c>
       <c r="C73">
-        <v>-15.6242806201241</v>
+        <v>-15.3815988808198</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
@@ -12208,7 +14720,7 @@
         <v>-15.641279999999901</v>
       </c>
       <c r="C74">
-        <v>-15.576433163254199</v>
+        <v>-15.3094523747215</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
@@ -12219,7 +14731,7 @@
         <v>-15.5565199999999</v>
       </c>
       <c r="C75">
-        <v>-15.5293526430579</v>
+        <v>-15.2385313763635</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
@@ -12230,7 +14742,7 @@
         <v>-15.467839999999899</v>
       </c>
       <c r="C76">
-        <v>-15.4830097807813</v>
+        <v>-15.168917134599599</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
@@ -12241,7 +14753,7 @@
         <v>-15.374999999999901</v>
       </c>
       <c r="C77">
-        <v>-15.437375480204601</v>
+        <v>-15.1007005100331</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
@@ -12252,7 +14764,7 @@
         <v>-15.277759999999899</v>
       </c>
       <c r="C78">
-        <v>-15.3924206979944</v>
+        <v>-15.033983266810999</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
@@ -12263,7 +14775,7 @@
         <v>-15.1758799999999</v>
       </c>
       <c r="C79">
-        <v>-15.3481163004155</v>
+        <v>-14.968879590445001</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
@@ -12274,7 +14786,7 @@
         <v>-15.0691199999999</v>
       </c>
       <c r="C80">
-        <v>-15.3044329030495</v>
+        <v>-14.905517878085799</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
@@ -12285,7 +14797,7 @@
         <v>-14.957239999999899</v>
       </c>
       <c r="C81">
-        <v>-15.261340689398301</v>
+        <v>-14.8440428590223</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
@@ -12296,7 +14808,7 @@
         <v>-14.8399999999999</v>
       </c>
       <c r="C82">
-        <v>-15.2188092032547</v>
+        <v>-14.7846181177178</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
@@ -12307,7 +14819,7 @@
         <v>-14.7171599999999</v>
       </c>
       <c r="C83">
-        <v>-15.1768071084445</v>
+        <v>-14.7274291104752</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
@@ -12318,7 +14830,7 @@
         <v>-14.588479999999899</v>
       </c>
       <c r="C84">
-        <v>-15.1353019078697</v>
+        <v>-14.6726867912652</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
@@ -12329,7 +14841,7 @@
         <v>-14.453719999999899</v>
       </c>
       <c r="C85">
-        <v>-15.094259611599201</v>
+        <v>-14.6206319943128</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
@@ -12340,7 +14852,7 @@
         <v>-14.312639999999901</v>
       </c>
       <c r="C86">
-        <v>-15.053644340852101</v>
+        <v>-14.5715407634573</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
@@ -12351,7 +14863,7 @@
         <v>-14.1649999999999</v>
       </c>
       <c r="C87">
-        <v>-15.013417850863</v>
+        <v>-14.5257308749456</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
@@ -12362,7 +14874,7 @@
         <v>-14.0105599999999</v>
       </c>
       <c r="C88">
-        <v>-14.973538950418799</v>
+        <v>-14.483569876673201</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
@@ -12373,7 +14885,7 @@
         <v>-13.849079999999899</v>
       </c>
       <c r="C89">
-        <v>-14.933962788791099</v>
+        <v>-14.4454850709106</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
@@ -12384,7 +14896,7 @@
         <v>-13.680319999999901</v>
       </c>
       <c r="C90">
-        <v>-14.894639971071401</v>
+        <v>-13.388276166400701</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
@@ -12395,7 +14907,7 @@
         <v>-13.5040399999999</v>
       </c>
       <c r="C91">
-        <v>-14.855515449409101</v>
+        <v>-13.292705962907601</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
@@ -12406,7 +14918,7 @@
         <v>-13.319999999999901</v>
       </c>
       <c r="C92">
-        <v>-14.816527118617101</v>
+        <v>-13.197289889628999</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
@@ -12417,7 +14929,7 @@
         <v>-13.1279599999999</v>
       </c>
       <c r="C93">
-        <v>-14.7776040174471</v>
+        <v>-13.1020234174304</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
@@ -12428,7 +14940,7 @@
         <v>-12.927679999999899</v>
       </c>
       <c r="C94">
-        <v>-14.738663997456801</v>
+        <v>-13.0069021929079</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
@@ -12439,7 +14951,7 @@
         <v>-12.718919999999899</v>
       </c>
       <c r="C95">
-        <v>-14.699610663415401</v>
+        <v>-12.911922029947901</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
@@ -12450,7 +14962,7 @@
         <v>-12.501439999999899</v>
       </c>
       <c r="C96">
-        <v>-14.6603293022843</v>
+        <v>-12.817078901767101</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
@@ -12461,7 +14973,7 @@
         <v>-12.274999999999901</v>
       </c>
       <c r="C97">
-        <v>-14.6206813850103</v>
+        <v>-12.722368933403899</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
@@ -12472,7 +14984,7 @@
         <v>-12.039359999999901</v>
       </c>
       <c r="C98">
-        <v>-14.580497018067801</v>
+        <v>-12.6277883946301</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
@@ -12483,7 +14995,7 @@
         <v>-11.794279999999899</v>
       </c>
       <c r="C99">
-        <v>-14.539564390352799</v>
+        <v>-12.533333693255599</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
@@ -12494,7 +15006,7 @@
         <v>-11.5395199999999</v>
       </c>
       <c r="C100">
-        <v>-14.497614717354701</v>
+        <v>-12.439001368802201</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
@@ -12505,7 +15017,7 @@
         <v>-11.2748399999999</v>
       </c>
       <c r="C101">
-        <v>-14.454300265693799</v>
+        <v>-12.344788086521699</v>
       </c>
     </row>
   </sheetData>
